--- a/Data/EUDA/Cannabis_detaille/niveau_educ_deja_traite.xlsx
+++ b/Data/EUDA/Cannabis_detaille/niveau_educ_deja_traite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,37 +441,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Year of Treatment</t>
+          <t>Never went to school / never completed primary school (ISCED 0).deja.deja.deja</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Never went to school / never completed primary school (ISCED 0)</t>
+          <t>Primary level of education (ISCED 1).deja.deja.deja</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Primary level of education (ISCED 1)</t>
+          <t>Secondary level of education (ISCED 2 and ISCED 3).deja.deja.deja</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Secondary level of education (ISCED 2 and ISCED 3)</t>
+          <t>Higher education (ISCED 4 to ISCED 6).deja.deja.deja</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Higher education (ISCED 4 to ISCED 6)</t>
+          <t>Not known / missing.deja.deja.deja</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Not known / missing</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
+          <t>Total.deja.deja.deja</t>
         </is>
       </c>
     </row>
@@ -482,24 +477,21 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2022</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>401</v>
       </c>
       <c r="E2" t="n">
-        <v>401</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>25</v>
-      </c>
-      <c r="H2" t="n">
         <v>458</v>
       </c>
     </row>
@@ -510,24 +502,21 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2022</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>407</v>
       </c>
       <c r="D3" t="n">
-        <v>407</v>
+        <v>795</v>
       </c>
       <c r="E3" t="n">
-        <v>795</v>
+        <v>87</v>
       </c>
       <c r="F3" t="n">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="G3" t="n">
-        <v>211</v>
-      </c>
-      <c r="H3" t="n">
         <v>1524</v>
       </c>
     </row>
@@ -538,24 +527,21 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
         <v>42</v>
       </c>
     </row>
@@ -566,24 +552,21 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2022</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="D5" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="E5" t="n">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
-      </c>
-      <c r="H5" t="n">
         <v>190</v>
       </c>
     </row>
@@ -594,24 +577,21 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
         <v>66</v>
       </c>
     </row>
@@ -621,23 +601,20 @@
           <t>Czechia</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>111</v>
+      </c>
       <c r="D7" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E7" t="n">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>234</v>
       </c>
       <c r="G7" t="n">
-        <v>234</v>
-      </c>
-      <c r="H7" t="n">
         <v>469</v>
       </c>
     </row>
@@ -648,24 +625,21 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="D8" t="n">
-        <v>204</v>
+        <v>976</v>
       </c>
       <c r="E8" t="n">
-        <v>976</v>
+        <v>248</v>
       </c>
       <c r="F8" t="n">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="G8" t="n">
-        <v>45</v>
-      </c>
-      <c r="H8" t="n">
         <v>1473</v>
       </c>
     </row>
@@ -676,20 +650,17 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2022</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
-      </c>
-      <c r="E9" t="n">
         <v>8</v>
       </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
+      <c r="G9" t="n">
         <v>15</v>
       </c>
     </row>
@@ -700,24 +671,21 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
+        <v>17</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="n">
-        <v>17</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5</v>
-      </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" t="n">
         <v>26</v>
       </c>
     </row>
@@ -728,24 +696,21 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2021</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="D11" t="n">
-        <v>115</v>
+        <v>2295</v>
       </c>
       <c r="E11" t="n">
-        <v>2295</v>
+        <v>481</v>
       </c>
       <c r="F11" t="n">
-        <v>481</v>
+        <v>747</v>
       </c>
       <c r="G11" t="n">
-        <v>747</v>
-      </c>
-      <c r="H11" t="n">
         <v>3648</v>
       </c>
     </row>
@@ -755,21 +720,18 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>1168</v>
+      </c>
       <c r="D12" t="n">
-        <v>1168</v>
-      </c>
-      <c r="E12" t="n">
         <v>5186</v>
       </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>567</v>
+      </c>
       <c r="G12" t="n">
-        <v>567</v>
-      </c>
-      <c r="H12" t="n">
         <v>6921</v>
       </c>
     </row>
@@ -780,24 +742,21 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2022</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="E13" t="n">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="F13" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G13" t="n">
-        <v>13</v>
-      </c>
-      <c r="H13" t="n">
         <v>299</v>
       </c>
     </row>
@@ -808,24 +767,21 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2022</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>183</v>
       </c>
       <c r="D14" t="n">
-        <v>183</v>
+        <v>259</v>
       </c>
       <c r="E14" t="n">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="F14" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>16</v>
-      </c>
-      <c r="H14" t="n">
         <v>488</v>
       </c>
     </row>
@@ -836,24 +792,21 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2022</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D15" t="n">
-        <v>70</v>
+        <v>488</v>
       </c>
       <c r="E15" t="n">
-        <v>488</v>
+        <v>42</v>
       </c>
       <c r="F15" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G15" t="n">
-        <v>43</v>
-      </c>
-      <c r="H15" t="n">
         <v>650</v>
       </c>
     </row>
@@ -864,24 +817,21 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2022</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="D16" t="n">
-        <v>140</v>
+        <v>2465</v>
       </c>
       <c r="E16" t="n">
-        <v>2465</v>
+        <v>46</v>
       </c>
       <c r="F16" t="n">
-        <v>46</v>
+        <v>656</v>
       </c>
       <c r="G16" t="n">
-        <v>656</v>
-      </c>
-      <c r="H16" t="n">
         <v>3322</v>
       </c>
     </row>
@@ -892,24 +842,21 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="E17" t="n">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>16</v>
-      </c>
-      <c r="H17" t="n">
         <v>76</v>
       </c>
     </row>
@@ -919,19 +866,16 @@
           <t>Lithuania</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>2022</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
       <c r="E18" t="n">
-        <v>10</v>
-      </c>
-      <c r="F18" t="n">
         <v>1</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
         <v>11</v>
       </c>
     </row>
@@ -942,22 +886,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2022</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D19" t="n">
-        <v>21</v>
-      </c>
-      <c r="E19" t="n">
         <v>25</v>
       </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>4</v>
+      </c>
       <c r="G19" t="n">
-        <v>4</v>
-      </c>
-      <c r="H19" t="n">
         <v>51</v>
       </c>
     </row>
@@ -967,23 +908,20 @@
           <t>Malta</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>23</v>
+      </c>
       <c r="D20" t="n">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="E20" t="n">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="F20" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
-      </c>
-      <c r="H20" t="n">
         <v>151</v>
       </c>
     </row>
@@ -994,24 +932,21 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2015</v>
+        <v>113</v>
       </c>
       <c r="C21" t="n">
-        <v>113</v>
+        <v>414</v>
       </c>
       <c r="D21" t="n">
-        <v>414</v>
+        <v>524</v>
       </c>
       <c r="E21" t="n">
-        <v>524</v>
+        <v>66</v>
       </c>
       <c r="F21" t="n">
-        <v>66</v>
+        <v>460</v>
       </c>
       <c r="G21" t="n">
-        <v>460</v>
-      </c>
-      <c r="H21" t="n">
         <v>1577</v>
       </c>
     </row>
@@ -1027,7 +962,6 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1036,24 +970,21 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2022</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="D23" t="n">
-        <v>87</v>
+        <v>319</v>
       </c>
       <c r="E23" t="n">
-        <v>319</v>
+        <v>64</v>
       </c>
       <c r="F23" t="n">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>12</v>
-      </c>
-      <c r="H23" t="n">
         <v>490</v>
       </c>
     </row>
@@ -1064,24 +995,21 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2022</v>
+        <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="D24" t="n">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="E24" t="n">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="F24" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G24" t="n">
-        <v>7</v>
-      </c>
-      <c r="H24" t="n">
         <v>342</v>
       </c>
     </row>
@@ -1092,24 +1020,21 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D25" t="n">
-        <v>13</v>
+        <v>268</v>
       </c>
       <c r="E25" t="n">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="F25" t="n">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="G25" t="n">
-        <v>7</v>
-      </c>
-      <c r="H25" t="n">
         <v>370</v>
       </c>
     </row>
@@ -1120,24 +1045,21 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2022</v>
+        <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="D26" t="n">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="E26" t="n">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="F26" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>12</v>
-      </c>
-      <c r="H26" t="n">
         <v>186</v>
       </c>
     </row>
@@ -1148,13 +1070,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
         <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>2</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1163,9 +1085,6 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1176,24 +1095,21 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2021</v>
+        <v>377</v>
       </c>
       <c r="C28" t="n">
-        <v>377</v>
+        <v>1265</v>
       </c>
       <c r="D28" t="n">
-        <v>1265</v>
+        <v>1296</v>
       </c>
       <c r="E28" t="n">
-        <v>1296</v>
+        <v>134</v>
       </c>
       <c r="F28" t="n">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="G28" t="n">
-        <v>88</v>
-      </c>
-      <c r="H28" t="n">
         <v>3160</v>
       </c>
     </row>
@@ -1209,7 +1125,6 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1218,20 +1133,17 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2022</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>243</v>
       </c>
       <c r="D30" t="n">
-        <v>243</v>
-      </c>
-      <c r="E30" t="n">
         <v>32</v>
       </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="n">
+      <c r="G30" t="n">
         <v>277</v>
       </c>
     </row>
@@ -1243,7 +1155,6 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1257,7 +1168,6 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1271,7 +1181,6 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1285,7 +1194,6 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1299,7 +1207,6 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1313,7 +1220,6 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
